--- a/input_comp.xlsx
+++ b/input_comp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/easonzz/Documents/GitHub/expt_mass_balance/Scripts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/easonzz/Documents/GitHub/expt_mass_balance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0546CB20-A52D-7A42-B076-0DD39EC5EF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5F4541-BCCC-8C40-9176-78FA26B09B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="500" windowWidth="27960" windowHeight="17500" activeTab="2" xr2:uid="{6109821C-9274-084C-8F3A-43209CC8EA0E}"/>
+    <workbookView xWindow="840" yWindow="500" windowWidth="27960" windowHeight="17500" activeTab="3" xr2:uid="{6109821C-9274-084C-8F3A-43209CC8EA0E}"/>
   </bookViews>
   <sheets>
     <sheet name="gl" sheetId="1" r:id="rId1"/>
@@ -2102,8 +2102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D8BC68-CC6A-BB43-B79D-71995A384D3A}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2419,8 +2419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DABEDB6B-5CE6-9F45-A2C4-6E5FBA98B22A}">
   <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2808,7 +2808,7 @@
   <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="B1:C1048576"/>
+      <selection activeCell="F20" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
